--- a/documentation/layout.xlsx
+++ b/documentation/layout.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/36eb05c4c24fd3aa/Dokumente/FH/BIF/2023_SS/SWEN2/swen2-project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/36eb05c4c24fd3aa/Dokumente/FH/BIF/2023_SS/SWEN2/swen2-project/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{5B3CD8C0-D586-4DF4-A000-F7DB0D44913F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61E9BB79-2F8D-4F0F-B410-46B8B6BB812B}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{5B3CD8C0-D586-4DF4-A000-F7DB0D44913F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8803FBB-8D6A-421B-B4A9-C3F01F4FFE68}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{73F6A6F2-F0D3-4082-9D8D-A66969A65FBE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t></t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>mistkübel</t>
+  </si>
+  <si>
+    <t>Photos</t>
   </si>
 </sst>
 </file>
@@ -665,7 +668,7 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -861,7 +864,9 @@
       <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
